--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value73.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value73.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.449888718521083</v>
+        <v>4.346005439758301</v>
       </c>
       <c r="B1">
-        <v>1.846409183428003</v>
+        <v>4.979316711425781</v>
       </c>
       <c r="C1">
-        <v>1.8520080854822</v>
+        <v>6.32066011428833</v>
       </c>
       <c r="D1">
-        <v>2.360245835368409</v>
+        <v>10.4017333984375</v>
       </c>
       <c r="E1">
-        <v>2.148678381375395</v>
+        <v>3.59139609336853</v>
       </c>
     </row>
   </sheetData>
